--- a/inst/extdata/test_anchor_metadata_raw.xlsx
+++ b/inst/extdata/test_anchor_metadata_raw.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">plate_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population</t>
   </si>
   <si>
     <t xml:space="preserve">Yescarta-Exhaustion-102518_Sample_19_PBMC.fcs</t>
@@ -148,7 +139,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,7 +149,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -178,10 +173,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IG4"/>
+  <dimension ref="A1:ID4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -189,10 +184,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="241" min="5" style="1" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="242" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1010" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="238" min="4" style="1" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="239" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1007" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,15 +199,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
@@ -446,45 +434,39 @@
       <c r="IB1" s="0"/>
       <c r="IC1" s="0"/>
       <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
